--- a/Presupuesto App social.xlsx
+++ b/Presupuesto App social.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula Andrea\Desktop\Proyecto_Ciclo4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula Andrea\Desktop\Ciclo4-Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D33B34-652A-4184-BE1C-D2CF36417D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F097063C-5E75-482D-8A54-C19A68114863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto para APP Social" sheetId="1" r:id="rId1"/>
@@ -1015,7 +1015,18 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -1032,12 +1043,6 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     </dxf>
     <dxf>
@@ -1045,7 +1050,10 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -1053,6 +1061,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -1084,20 +1093,11 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -1770,16 +1770,16 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5800000</c:v>
+                  <c:v>11200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1700000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>29000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2200000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2360,9 +2360,9 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CATEGORÍA" totalsRowLabel="Total EQUIPOS" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DIFERENCIA" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DIFERENCIA" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="9">
       <calculatedColumnFormula>'Equipos - software'!$C3-'Equipos - software'!$D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2385,9 +2385,9 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CATEGORÍA" totalsRowLabel="Total SOFTWARE" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="DIFERENCIA" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="DIFERENCIA" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="6">
       <calculatedColumnFormula>'Equipos - software'!$C20-'Equipos - software'!$D20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2401,7 +2401,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B32:E35" totalsRowCount="1" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B32:E35" totalsRowCount="1" totalsRowDxfId="29">
   <autoFilter ref="B32:E34" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2409,10 +2409,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORÍA" totalsRowLabel="Total PERSONAL" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="DIFERENCIA" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORÍA" totalsRowLabel="Total PERSONAL" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="DIFERENCIA" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="3">
       <calculatedColumnFormula>'Equipos - software'!$C33-'Equipos - software'!$D33</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2426,7 +2426,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impresión" displayName="Impresión" ref="B38:E48" totalsRowCount="1" totalsRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impresión" displayName="Impresión" ref="B38:E48" totalsRowCount="1" totalsRowDxfId="24">
   <autoFilter ref="B38:E47" xr:uid="{00000000-0009-0000-0100-00000F000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2434,10 +2434,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORÍA" totalsRowLabel="Total de GASTOS ADMINISTRATIVOS" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="DIFERENCIA" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORÍA" totalsRowLabel="Total de GASTOS ADMINISTRATIVOS" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="DIFERENCIA" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="0">
       <calculatedColumnFormula>'Equipos - software'!$C39-'Equipos - software'!$D39</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2451,7 +2451,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Fotografía" displayName="Fotografía" ref="B51:E56" totalsRowCount="1" totalsRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Fotografía" displayName="Fotografía" ref="B51:E56" totalsRowCount="1" totalsRowDxfId="19">
   <autoFilter ref="B51:E55" xr:uid="{00000000-0009-0000-0100-000010000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2459,12 +2459,12 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="CATEGORÍA" totalsRowLabel="Total de VARIOS" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="CATEGORÍA" totalsRowLabel="Total de VARIOS" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>(Impresión[[#Totals],[ESTIMADO]]+Música[[#Totals],[ESTIMADO]]+Recepción[[#Totals],[ESTIMADO]]+Ropa[[#Totals],[ESTIMADO]])*0.1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="DIFERENCIA" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="DIFERENCIA" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>'Equipos - software'!$C52-'Equipos - software'!$D52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2746,7 +2746,7 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2845,11 +2845,11 @@
       </c>
       <c r="E7" s="26" cm="1">
         <f t="array" ref="E7">Total_Ropa_real</f>
-        <v>5800000</v>
+        <v>11200000</v>
       </c>
       <c r="F7" s="26">
         <f>ResumenDelPresupuesto[[#This Row],[ESTIMADO]]-ResumenDelPresupuesto[[#This Row],[REAL]]</f>
-        <v>43450000</v>
+        <v>38050000</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -2865,11 +2865,11 @@
       </c>
       <c r="E8" s="26" cm="1">
         <f t="array" ref="E8">Total_recepción_real</f>
-        <v>0</v>
+        <v>1700000</v>
       </c>
       <c r="F8" s="26">
         <f>ResumenDelPresupuesto[[#This Row],[ESTIMADO]]-ResumenDelPresupuesto[[#This Row],[REAL]]</f>
-        <v>6500000</v>
+        <v>4800000</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -2885,11 +2885,11 @@
       </c>
       <c r="E9" s="26" cm="1">
         <f t="array" ref="E9">Total_Música_entretenimiento_real</f>
-        <v>0</v>
+        <v>29000000</v>
       </c>
       <c r="F9" s="26">
         <f>ResumenDelPresupuesto[[#This Row],[ESTIMADO]]-ResumenDelPresupuesto[[#This Row],[REAL]]</f>
-        <v>58000000</v>
+        <v>29000000</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -2901,15 +2901,15 @@
       </c>
       <c r="D10" s="26" cm="1">
         <f t="array" ref="D10">Total_Impresión_Artículos_De_Papelería_estimado</f>
-        <v>43700000</v>
+        <v>12433333.333333334</v>
       </c>
       <c r="E10" s="26" cm="1">
         <f t="array" ref="E10">Total_Impresión_Artículos_De_Papelería_real</f>
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="F10" s="26">
         <f>ResumenDelPresupuesto[[#This Row],[ESTIMADO]]-ResumenDelPresupuesto[[#This Row],[REAL]]</f>
-        <v>43700000</v>
+        <v>10233333.333333334</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="D11" s="26" cm="1">
         <f t="array" ref="D11">Total_Fotografía_estimado</f>
-        <v>15745000</v>
+        <v>12618333.333333334</v>
       </c>
       <c r="E11" s="26" cm="1">
         <f t="array" ref="E11">Total_Fotografía_real</f>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="F11" s="26">
         <f>ResumenDelPresupuesto[[#This Row],[ESTIMADO]]-ResumenDelPresupuesto[[#This Row],[REAL]]</f>
-        <v>15745000</v>
+        <v>12618333.333333334</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -2940,15 +2940,15 @@
       </c>
       <c r="D12" s="32">
         <f>SUBTOTAL(109,ResumenDelPresupuesto[ESTIMADO])</f>
-        <v>173195000</v>
+        <v>138801666.66666666</v>
       </c>
       <c r="E12" s="33">
         <f>SUBTOTAL(109,ResumenDelPresupuesto[REAL])</f>
-        <v>5800000</v>
+        <v>44100000</v>
       </c>
       <c r="F12" s="33">
         <f>SUBTOTAL(109,ResumenDelPresupuesto[DIFERENCIA])</f>
-        <v>167395000</v>
+        <v>94701666.666666657</v>
       </c>
       <c r="G12" s="22"/>
     </row>
@@ -3231,8 +3231,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3297,10 +3297,12 @@
       <c r="C4" s="30">
         <v>6000000</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="30">
+        <v>5400000</v>
+      </c>
       <c r="E4" s="30">
         <f>'Equipos - software'!$C4-'Equipos - software'!$D4</f>
-        <v>6000000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3450,11 +3452,11 @@
       </c>
       <c r="D16" s="31">
         <f>SUBTOTAL(109,Ropa[REAL])</f>
-        <v>5800000</v>
+        <v>11200000</v>
       </c>
       <c r="E16" s="31">
         <f>SUBTOTAL(109,Ropa[DIFERENCIA])</f>
-        <v>43450000</v>
+        <v>38050000</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3497,10 +3499,12 @@
       <c r="C20" s="30">
         <v>2400000</v>
       </c>
-      <c r="D20" s="30"/>
+      <c r="D20" s="30">
+        <v>800000</v>
+      </c>
       <c r="E20" s="30">
         <f>'Equipos - software'!$C20-'Equipos - software'!$D20</f>
-        <v>2400000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3510,10 +3514,12 @@
       <c r="C21" s="30">
         <v>1600000</v>
       </c>
-      <c r="D21" s="30"/>
+      <c r="D21" s="30">
+        <v>800000</v>
+      </c>
       <c r="E21" s="30">
         <f>'Equipos - software'!$C21-'Equipos - software'!$D21</f>
-        <v>1600000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3549,10 +3555,12 @@
       <c r="C24" s="30">
         <v>100000</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="30">
+        <v>100000</v>
+      </c>
       <c r="E24" s="30">
         <f>'Equipos - software'!$C24-'Equipos - software'!$D24</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3597,11 +3605,11 @@
       </c>
       <c r="D28" s="31">
         <f>SUBTOTAL(109,Recepción[REAL])</f>
-        <v>0</v>
+        <v>1700000</v>
       </c>
       <c r="E28" s="31">
         <f>SUBTOTAL(109,Recepción[DIFERENCIA])</f>
-        <v>6500000</v>
+        <v>4800000</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3651,10 +3659,12 @@
         <f>(120000000/6)*2</f>
         <v>40000000</v>
       </c>
-      <c r="D33" s="30"/>
+      <c r="D33" s="30">
+        <v>20000000</v>
+      </c>
       <c r="E33" s="30">
         <f>'Equipos - software'!$C33-'Equipos - software'!$D33</f>
-        <v>40000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3665,10 +3675,12 @@
         <f>C33*0.45</f>
         <v>18000000</v>
       </c>
-      <c r="D34" s="30"/>
+      <c r="D34" s="30">
+        <v>9000000</v>
+      </c>
       <c r="E34" s="30">
         <f>'Equipos - software'!$C34-'Equipos - software'!$D34</f>
-        <v>18000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3681,11 +3693,11 @@
       </c>
       <c r="D35" s="31">
         <f>SUBTOTAL(109,Música[REAL])</f>
-        <v>0</v>
+        <v>29000000</v>
       </c>
       <c r="E35" s="31">
         <f>SUBTOTAL(109,Música[DIFERENCIA])</f>
-        <v>58000000</v>
+        <v>29000000</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3727,10 +3739,12 @@
       <c r="C39" s="30">
         <v>1500000</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>400000</v>
+      </c>
       <c r="E39" s="30">
         <f>'Equipos - software'!$C39-'Equipos - software'!$D39</f>
-        <v>1500000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3738,12 +3752,15 @@
         <v>43</v>
       </c>
       <c r="C40" s="30">
-        <v>10000000</v>
-      </c>
-      <c r="D40" s="30"/>
+        <f>(10000000/6)*2</f>
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="D40" s="30">
+        <v>1500000</v>
+      </c>
       <c r="E40" s="30">
         <f>'Equipos - software'!$C40-'Equipos - software'!$D40</f>
-        <v>10000000</v>
+        <v>1833333.3333333335</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3751,12 +3768,12 @@
         <v>44</v>
       </c>
       <c r="C41" s="30">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30">
         <f>'Equipos - software'!$C41-'Equipos - software'!$D41</f>
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3764,12 +3781,12 @@
         <v>45</v>
       </c>
       <c r="C42" s="30">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="30">
         <f>'Equipos - software'!$C42-'Equipos - software'!$D42</f>
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3777,12 +3794,12 @@
         <v>46</v>
       </c>
       <c r="C43" s="30">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30">
         <f>'Equipos - software'!$C43-'Equipos - software'!$D43</f>
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3791,12 +3808,14 @@
         <v>47</v>
       </c>
       <c r="C44" s="30">
-        <v>2200000</v>
-      </c>
-      <c r="D44" s="30"/>
+        <v>600000</v>
+      </c>
+      <c r="D44" s="30">
+        <v>300000</v>
+      </c>
       <c r="E44" s="30">
         <f>'Equipos - software'!$C44-'Equipos - software'!$D44</f>
-        <v>2200000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3833,15 +3852,15 @@
       </c>
       <c r="C48" s="31">
         <f>SUBTOTAL(109,Impresión[ESTIMADO])</f>
-        <v>43700000</v>
+        <v>12433333.333333334</v>
       </c>
       <c r="D48" s="31">
         <f>SUBTOTAL(109,Impresión[REAL])</f>
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="E48" s="31">
         <f>SUBTOTAL(109,Impresión[DIFERENCIA])</f>
-        <v>43700000</v>
+        <v>10233333.333333334</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3882,12 +3901,12 @@
       </c>
       <c r="C52" s="30">
         <f>(Impresión[[#Totals],[ESTIMADO]]+Música[[#Totals],[ESTIMADO]]+Recepción[[#Totals],[ESTIMADO]]+Ropa[[#Totals],[ESTIMADO]])*0.1</f>
-        <v>15745000</v>
+        <v>12618333.333333334</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="30">
         <f>'Equipos - software'!$C52-'Equipos - software'!$D52</f>
-        <v>15745000</v>
+        <v>12618333.333333334</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3923,7 +3942,7 @@
       </c>
       <c r="C56" s="31">
         <f>SUBTOTAL(109,Fotografía[ESTIMADO])</f>
-        <v>15745000</v>
+        <v>12618333.333333334</v>
       </c>
       <c r="D56" s="31">
         <f>SUBTOTAL(109,Fotografía[REAL])</f>
@@ -3931,7 +3950,7 @@
       </c>
       <c r="E56" s="31">
         <f>SUBTOTAL(109,Fotografía[DIFERENCIA])</f>
-        <v>15745000</v>
+        <v>12618333.333333334</v>
       </c>
     </row>
   </sheetData>
